--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_06.26.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_06.26.19.xlsx
@@ -1,95 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="20">
   <si>
-    <t>rnaDate</t>
-  </si>
-  <si>
-    <t>rnaPreparer</t>
-  </si>
-  <si>
-    <t>rnaSampleNumber</t>
-  </si>
-  <si>
-    <t>s1cDNADate</t>
-  </si>
-  <si>
-    <t>s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t>s1Protocol</t>
-  </si>
-  <si>
-    <t>roboticS1Prep</t>
-  </si>
-  <si>
-    <t>s1PrimerSeq</t>
-  </si>
-  <si>
-    <t>06.21.19</t>
-  </si>
-  <si>
-    <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>06.26.19</t>
-  </si>
-  <si>
-    <t>NEBNextPoly(A)E7490</t>
-  </si>
-  <si>
-    <t>E7760</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>H.BROWN</t>
-  </si>
-  <si>
-    <t>06.24.19</t>
-  </si>
-  <si>
-    <t>06.25.19</t>
+    <t xml:space="preserve">rnaDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaSampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticS1Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1PrimerSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.21.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.26.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.BROWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.24.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.25.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,60 +142,101 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -198,15 +284,15 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -214,8 +300,8 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
-        <v>1.0</v>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -230,15 +316,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
-        <v>2.0</v>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -246,8 +332,8 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4">
-        <v>2.0</v>
+      <c r="F3" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -262,15 +348,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
-        <v>3.0</v>
+      <c r="C4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -278,8 +364,8 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4">
-        <v>3.0</v>
+      <c r="F4" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -294,15 +380,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
-        <v>4.0</v>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -310,8 +396,8 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4">
-        <v>4.0</v>
+      <c r="F5" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -326,15 +412,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>5.0</v>
+      <c r="C6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -342,8 +428,8 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4">
-        <v>5.0</v>
+      <c r="F6" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -358,15 +444,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
-        <v>6.0</v>
+      <c r="C7" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -374,8 +460,8 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4">
-        <v>6.0</v>
+      <c r="F7" s="4" t="n">
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -390,15 +476,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
-        <v>7.0</v>
+      <c r="C8" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -406,8 +492,8 @@
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4">
-        <v>25.0</v>
+      <c r="F8" s="4" t="n">
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
@@ -422,15 +508,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
-        <v>8.0</v>
+      <c r="C9" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
@@ -438,8 +524,8 @@
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4">
-        <v>26.0</v>
+      <c r="F9" s="4" t="n">
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -454,15 +540,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2">
-        <v>9.0</v>
+      <c r="C10" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -470,8 +556,8 @@
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4">
-        <v>27.0</v>
+      <c r="F10" s="4" t="n">
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
@@ -486,15 +572,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
-        <v>10.0</v>
+      <c r="C11" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
@@ -502,8 +588,8 @@
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4">
-        <v>28.0</v>
+      <c r="F11" s="4" t="n">
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -518,15 +604,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>11.0</v>
+      <c r="C12" s="2" t="n">
+        <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>12</v>
@@ -534,8 +620,8 @@
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4">
-        <v>29.0</v>
+      <c r="F12" s="4" t="n">
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -550,15 +636,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
-        <v>12.0</v>
+      <c r="C13" s="2" t="n">
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
@@ -566,8 +652,8 @@
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4">
-        <v>30.0</v>
+      <c r="F13" s="4" t="n">
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -582,15 +668,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
-        <v>13.0</v>
+      <c r="C14" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
@@ -598,8 +684,8 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="4">
-        <v>7.0</v>
+      <c r="F14" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -614,15 +700,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
-        <v>14.0</v>
+      <c r="C15" s="2" t="n">
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
@@ -630,8 +716,8 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4">
-        <v>8.0</v>
+      <c r="F15" s="4" t="n">
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
@@ -646,15 +732,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2">
-        <v>15.0</v>
+      <c r="C16" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -662,8 +748,8 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4">
-        <v>9.0</v>
+      <c r="F16" s="4" t="n">
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -678,15 +764,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
-        <v>16.0</v>
+      <c r="C17" s="2" t="n">
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -694,8 +780,8 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4">
-        <v>10.0</v>
+      <c r="F17" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -710,15 +796,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
-        <v>17.0</v>
+      <c r="C18" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
@@ -726,8 +812,8 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4">
-        <v>11.0</v>
+      <c r="F18" s="4" t="n">
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -742,15 +828,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2">
-        <v>18.0</v>
+      <c r="C19" s="2" t="n">
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -758,8 +844,8 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="4">
-        <v>12.0</v>
+      <c r="F19" s="4" t="n">
+        <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -774,15 +860,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2">
-        <v>19.0</v>
+      <c r="C20" s="2" t="n">
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -790,8 +876,8 @@
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="4">
-        <v>31.0</v>
+      <c r="F20" s="4" t="n">
+        <v>31</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -806,15 +892,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2">
-        <v>20.0</v>
+      <c r="C21" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -822,8 +908,8 @@
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4">
-        <v>32.0</v>
+      <c r="F21" s="4" t="n">
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -838,15 +924,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2">
-        <v>21.0</v>
+      <c r="C22" s="2" t="n">
+        <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
@@ -854,8 +940,8 @@
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4">
-        <v>33.0</v>
+      <c r="F22" s="4" t="n">
+        <v>33</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -870,15 +956,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2">
-        <v>22.0</v>
+      <c r="C23" s="2" t="n">
+        <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -886,8 +972,8 @@
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="4">
-        <v>34.0</v>
+      <c r="F23" s="4" t="n">
+        <v>34</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -902,15 +988,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2">
-        <v>23.0</v>
+      <c r="C24" s="2" t="n">
+        <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -918,8 +1004,8 @@
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="4">
-        <v>35.0</v>
+      <c r="F24" s="4" t="n">
+        <v>35</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -934,15 +1020,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2">
-        <v>24.0</v>
+      <c r="C25" s="2" t="n">
+        <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
@@ -950,8 +1036,8 @@
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="4">
-        <v>36.0</v>
+      <c r="F25" s="4" t="n">
+        <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -966,15 +1052,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2">
-        <v>25.0</v>
+      <c r="C26" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>12</v>
@@ -982,8 +1068,8 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="4">
-        <v>13.0</v>
+      <c r="F26" s="4" t="n">
+        <v>13</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -998,15 +1084,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2">
-        <v>26.0</v>
+      <c r="C27" s="2" t="n">
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>12</v>
@@ -1014,8 +1100,8 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="4">
-        <v>14.0</v>
+      <c r="F27" s="4" t="n">
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>13</v>
@@ -1030,15 +1116,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="2">
-        <v>27.0</v>
+      <c r="C28" s="2" t="n">
+        <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>12</v>
@@ -1046,8 +1132,8 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="4">
-        <v>15.0</v>
+      <c r="F28" s="4" t="n">
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>13</v>
@@ -1062,15 +1148,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="2">
-        <v>28.0</v>
+      <c r="C29" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>12</v>
@@ -1078,8 +1164,8 @@
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="4">
-        <v>16.0</v>
+      <c r="F29" s="4" t="n">
+        <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
@@ -1094,15 +1180,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2">
-        <v>29.0</v>
+      <c r="C30" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>12</v>
@@ -1110,8 +1196,8 @@
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="4">
-        <v>17.0</v>
+      <c r="F30" s="4" t="n">
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
@@ -1126,15 +1212,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="2">
-        <v>30.0</v>
+      <c r="C31" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>12</v>
@@ -1142,8 +1228,8 @@
       <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="4">
-        <v>18.0</v>
+      <c r="F31" s="4" t="n">
+        <v>18</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -1158,15 +1244,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="2">
-        <v>31.0</v>
+      <c r="C32" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>12</v>
@@ -1174,8 +1260,8 @@
       <c r="E32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="4">
-        <v>37.0</v>
+      <c r="F32" s="4" t="n">
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -1190,15 +1276,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="2">
-        <v>32.0</v>
+      <c r="C33" s="2" t="n">
+        <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>12</v>
@@ -1206,8 +1292,8 @@
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="4">
-        <v>38.0</v>
+      <c r="F33" s="4" t="n">
+        <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1222,15 +1308,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2">
-        <v>33.0</v>
+      <c r="C34" s="2" t="n">
+        <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>12</v>
@@ -1238,8 +1324,8 @@
       <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="4">
-        <v>39.0</v>
+      <c r="F34" s="4" t="n">
+        <v>39</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1254,15 +1340,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="2">
-        <v>34.0</v>
+      <c r="C35" s="2" t="n">
+        <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>12</v>
@@ -1270,8 +1356,8 @@
       <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="4">
-        <v>40.0</v>
+      <c r="F35" s="4" t="n">
+        <v>40</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1286,15 +1372,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2">
-        <v>35.0</v>
+      <c r="C36" s="2" t="n">
+        <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>12</v>
@@ -1302,8 +1388,8 @@
       <c r="E36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="4">
-        <v>41.0</v>
+      <c r="F36" s="4" t="n">
+        <v>41</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1318,15 +1404,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
-        <v>36.0</v>
+      <c r="C37" s="2" t="n">
+        <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>12</v>
@@ -1334,8 +1420,8 @@
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="4">
-        <v>42.0</v>
+      <c r="F37" s="4" t="n">
+        <v>42</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1350,15 +1436,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="2">
-        <v>37.0</v>
+      <c r="C38" s="2" t="n">
+        <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
@@ -1366,8 +1452,8 @@
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="4">
-        <v>19.0</v>
+      <c r="F38" s="4" t="n">
+        <v>19</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1382,15 +1468,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="2">
-        <v>38.0</v>
+      <c r="C39" s="2" t="n">
+        <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
@@ -1398,8 +1484,8 @@
       <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="4">
-        <v>20.0</v>
+      <c r="F39" s="4" t="n">
+        <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1414,15 +1500,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="2">
-        <v>39.0</v>
+      <c r="C40" s="2" t="n">
+        <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
@@ -1430,8 +1516,8 @@
       <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="4">
-        <v>21.0</v>
+      <c r="F40" s="4" t="n">
+        <v>21</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1446,15 +1532,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="2">
-        <v>40.0</v>
+      <c r="C41" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
@@ -1462,8 +1548,8 @@
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="4">
-        <v>22.0</v>
+      <c r="F41" s="4" t="n">
+        <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1478,15 +1564,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="2">
-        <v>41.0</v>
+      <c r="C42" s="2" t="n">
+        <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
@@ -1494,8 +1580,8 @@
       <c r="E42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="4">
-        <v>23.0</v>
+      <c r="F42" s="4" t="n">
+        <v>23</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -1510,15 +1596,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="2">
-        <v>42.0</v>
+      <c r="C43" s="2" t="n">
+        <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>12</v>
@@ -1526,8 +1612,8 @@
       <c r="E43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="4">
-        <v>24.0</v>
+      <c r="F43" s="4" t="n">
+        <v>24</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -1542,15 +1628,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="2">
-        <v>43.0</v>
+      <c r="C44" s="2" t="n">
+        <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>12</v>
@@ -1558,8 +1644,8 @@
       <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="4">
-        <v>43.0</v>
+      <c r="F44" s="4" t="n">
+        <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -1574,15 +1660,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="2">
-        <v>44.0</v>
+      <c r="C45" s="2" t="n">
+        <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>12</v>
@@ -1590,8 +1676,8 @@
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="4">
-        <v>44.0</v>
+      <c r="F45" s="4" t="n">
+        <v>44</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
@@ -1606,15 +1692,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="2">
-        <v>45.0</v>
+      <c r="C46" s="2" t="n">
+        <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>12</v>
@@ -1622,8 +1708,8 @@
       <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="4">
-        <v>45.0</v>
+      <c r="F46" s="4" t="n">
+        <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -1638,15 +1724,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="2">
-        <v>46.0</v>
+      <c r="C47" s="2" t="n">
+        <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>12</v>
@@ -1654,8 +1740,8 @@
       <c r="E47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="4">
-        <v>46.0</v>
+      <c r="F47" s="4" t="n">
+        <v>46</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -1670,15 +1756,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="2">
-        <v>47.0</v>
+      <c r="C48" s="2" t="n">
+        <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>12</v>
@@ -1686,8 +1772,8 @@
       <c r="E48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="4">
-        <v>47.0</v>
+      <c r="F48" s="4" t="n">
+        <v>47</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>13</v>
@@ -1702,15 +1788,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="2">
-        <v>48.0</v>
+      <c r="C49" s="2" t="n">
+        <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>12</v>
@@ -1718,8 +1804,8 @@
       <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="4">
-        <v>48.0</v>
+      <c r="F49" s="4" t="n">
+        <v>48</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>13</v>
@@ -1735,6 +1821,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_06.26.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_06.26.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="19">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">E7420</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">random</t>
   </si>
   <si>
@@ -86,8 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -179,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,6 +199,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,8 +229,8 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,11 +311,11 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="I2" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,11 +343,11 @@
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="I3" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,11 +375,11 @@
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="I4" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,11 +407,11 @@
       <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="I5" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,11 +439,11 @@
       <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="I6" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,11 +471,11 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
+      <c r="I7" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,8 +491,8 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>25</v>
@@ -501,11 +503,11 @@
       <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
+      <c r="I8" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,8 +523,8 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>26</v>
@@ -533,11 +535,11 @@
       <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
+      <c r="I9" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,8 +555,8 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>27</v>
@@ -565,11 +567,11 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
+      <c r="I10" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,8 +587,8 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>28</v>
@@ -597,11 +599,11 @@
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
+      <c r="I11" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,8 +619,8 @@
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>29</v>
@@ -629,11 +631,11 @@
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
+      <c r="I12" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,8 +651,8 @@
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>30</v>
@@ -661,16 +663,16 @@
       <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -693,16 +695,16 @@
       <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
+      <c r="I14" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -725,16 +727,16 @@
       <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>15</v>
+      <c r="I15" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -757,16 +759,16 @@
       <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
+      <c r="I16" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -789,16 +791,16 @@
       <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -821,16 +823,16 @@
       <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
+      <c r="I18" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -853,16 +855,16 @@
       <c r="H19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
+      <c r="I19" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -873,8 +875,8 @@
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>17</v>
+      <c r="E20" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>31</v>
@@ -885,16 +887,16 @@
       <c r="H20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
+      <c r="I20" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -905,8 +907,8 @@
       <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
+      <c r="E21" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>32</v>
@@ -917,16 +919,16 @@
       <c r="H21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
+      <c r="I21" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
@@ -937,8 +939,8 @@
       <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
+      <c r="E22" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>33</v>
@@ -949,16 +951,16 @@
       <c r="H22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
+      <c r="I22" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -969,8 +971,8 @@
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>17</v>
+      <c r="E23" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>34</v>
@@ -981,16 +983,16 @@
       <c r="H23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
+      <c r="I23" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
@@ -1001,8 +1003,8 @@
       <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
+      <c r="E24" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>35</v>
@@ -1013,16 +1015,16 @@
       <c r="H24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
+      <c r="I24" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -1033,8 +1035,8 @@
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>17</v>
+      <c r="E25" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="4" t="n">
         <v>36</v>
@@ -1045,16 +1047,16 @@
       <c r="H25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
+      <c r="I25" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -1077,16 +1079,16 @@
       <c r="H26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
+      <c r="I26" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
@@ -1109,16 +1111,16 @@
       <c r="H27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
+      <c r="I27" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -1141,16 +1143,16 @@
       <c r="H28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
+      <c r="I28" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
@@ -1173,16 +1175,16 @@
       <c r="H29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
+      <c r="I29" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -1205,16 +1207,16 @@
       <c r="H30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>15</v>
+      <c r="I30" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -1237,16 +1239,16 @@
       <c r="H31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>15</v>
+      <c r="I31" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -1257,8 +1259,8 @@
       <c r="D32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>17</v>
+      <c r="E32" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>37</v>
@@ -1269,16 +1271,16 @@
       <c r="H32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>15</v>
+      <c r="I32" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -1289,8 +1291,8 @@
       <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>17</v>
+      <c r="E33" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>38</v>
@@ -1301,16 +1303,16 @@
       <c r="H33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>15</v>
+      <c r="I33" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
@@ -1321,8 +1323,8 @@
       <c r="D34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>17</v>
+      <c r="E34" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F34" s="4" t="n">
         <v>39</v>
@@ -1333,16 +1335,16 @@
       <c r="H34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>15</v>
+      <c r="I34" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
@@ -1353,8 +1355,8 @@
       <c r="D35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>17</v>
+      <c r="E35" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F35" s="4" t="n">
         <v>40</v>
@@ -1365,16 +1367,16 @@
       <c r="H35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>15</v>
+      <c r="I35" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -1385,8 +1387,8 @@
       <c r="D36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>17</v>
+      <c r="E36" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>41</v>
@@ -1397,16 +1399,16 @@
       <c r="H36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>15</v>
+      <c r="I36" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
@@ -1417,8 +1419,8 @@
       <c r="D37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>17</v>
+      <c r="E37" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>42</v>
@@ -1429,16 +1431,16 @@
       <c r="H37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>15</v>
+      <c r="I37" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
@@ -1461,16 +1463,16 @@
       <c r="H38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>15</v>
+      <c r="I38" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
@@ -1493,16 +1495,16 @@
       <c r="H39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>15</v>
+      <c r="I39" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -1525,16 +1527,16 @@
       <c r="H40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>15</v>
+      <c r="I40" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
@@ -1557,16 +1559,16 @@
       <c r="H41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>15</v>
+      <c r="I41" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
@@ -1589,16 +1591,16 @@
       <c r="H42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>15</v>
+      <c r="I42" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
@@ -1621,16 +1623,16 @@
       <c r="H43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>15</v>
+      <c r="I43" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -1641,8 +1643,8 @@
       <c r="D44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>17</v>
+      <c r="E44" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F44" s="4" t="n">
         <v>43</v>
@@ -1653,16 +1655,16 @@
       <c r="H44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>15</v>
+      <c r="I44" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -1673,8 +1675,8 @@
       <c r="D45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>17</v>
+      <c r="E45" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>44</v>
@@ -1685,16 +1687,16 @@
       <c r="H45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>15</v>
+      <c r="I45" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
@@ -1705,8 +1707,8 @@
       <c r="D46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>17</v>
+      <c r="E46" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>45</v>
@@ -1717,16 +1719,16 @@
       <c r="H46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>15</v>
+      <c r="I46" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
@@ -1737,8 +1739,8 @@
       <c r="D47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>17</v>
+      <c r="E47" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>46</v>
@@ -1749,16 +1751,16 @@
       <c r="H47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>15</v>
+      <c r="I47" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
@@ -1769,8 +1771,8 @@
       <c r="D48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>17</v>
+      <c r="E48" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>47</v>
@@ -1781,16 +1783,16 @@
       <c r="H48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>15</v>
+      <c r="I48" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -1801,8 +1803,8 @@
       <c r="D49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>17</v>
+      <c r="E49" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>48</v>
@@ -1813,11 +1815,11 @@
       <c r="H49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>15</v>
+      <c r="I49" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_06.26.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_06.26.19.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">06.26.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -229,13 +229,15 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_06.26.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_06.26.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">06.26.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
+    <t xml:space="preserve">E7490L</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -229,14 +229,14 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -313,7 +313,8 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="b">
+      <c r="I2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -345,7 +346,8 @@
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="b">
+      <c r="I3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -377,7 +379,8 @@
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="b">
+      <c r="I4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -409,7 +412,8 @@
       <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="I5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -441,7 +445,8 @@
       <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -473,7 +478,8 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="b">
+      <c r="I7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -505,7 +511,8 @@
       <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="b">
+      <c r="I8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -537,7 +544,8 @@
       <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="b">
+      <c r="I9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -569,7 +577,8 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6" t="b">
+      <c r="I10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -601,7 +610,8 @@
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6" t="b">
+      <c r="I11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -633,7 +643,8 @@
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="b">
+      <c r="I12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -665,7 +676,8 @@
       <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6" t="b">
+      <c r="I13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -697,7 +709,8 @@
       <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="6" t="b">
+      <c r="I14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -729,7 +742,8 @@
       <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="6" t="b">
+      <c r="I15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -761,7 +775,8 @@
       <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="6" t="b">
+      <c r="I16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -793,7 +808,8 @@
       <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="6" t="b">
+      <c r="I17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -825,7 +841,8 @@
       <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="6" t="b">
+      <c r="I18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -857,7 +874,8 @@
       <c r="H19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="6" t="b">
+      <c r="I19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -889,7 +907,8 @@
       <c r="H20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="6" t="b">
+      <c r="I20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -921,7 +940,8 @@
       <c r="H21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="6" t="b">
+      <c r="I21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -953,7 +973,8 @@
       <c r="H22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="6" t="b">
+      <c r="I22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -985,7 +1006,8 @@
       <c r="H23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="6" t="b">
+      <c r="I23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1017,7 +1039,8 @@
       <c r="H24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="6" t="b">
+      <c r="I24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1049,7 +1072,8 @@
       <c r="H25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="6" t="b">
+      <c r="I25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1081,7 +1105,8 @@
       <c r="H26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="6" t="b">
+      <c r="I26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1113,7 +1138,8 @@
       <c r="H27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="6" t="b">
+      <c r="I27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1145,7 +1171,8 @@
       <c r="H28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="6" t="b">
+      <c r="I28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1177,7 +1204,8 @@
       <c r="H29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="6" t="b">
+      <c r="I29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1209,7 +1237,8 @@
       <c r="H30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="6" t="b">
+      <c r="I30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1241,7 +1270,8 @@
       <c r="H31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="6" t="b">
+      <c r="I31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1273,7 +1303,8 @@
       <c r="H32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="6" t="b">
+      <c r="I32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1305,7 +1336,8 @@
       <c r="H33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="6" t="b">
+      <c r="I33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1337,7 +1369,8 @@
       <c r="H34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="6" t="b">
+      <c r="I34" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -1369,7 +1402,8 @@
       <c r="H35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="6" t="b">
+      <c r="I35" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1401,7 +1435,8 @@
       <c r="H36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="6" t="b">
+      <c r="I36" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1433,7 +1468,8 @@
       <c r="H37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="6" t="b">
+      <c r="I37" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1465,7 +1501,8 @@
       <c r="H38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="6" t="b">
+      <c r="I38" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -1497,7 +1534,8 @@
       <c r="H39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="6" t="b">
+      <c r="I39" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -1529,7 +1567,8 @@
       <c r="H40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="6" t="b">
+      <c r="I40" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -1561,7 +1600,8 @@
       <c r="H41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="6" t="b">
+      <c r="I41" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -1593,7 +1633,8 @@
       <c r="H42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="6" t="b">
+      <c r="I42" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -1625,7 +1666,8 @@
       <c r="H43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="6" t="b">
+      <c r="I43" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -1657,7 +1699,8 @@
       <c r="H44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="6" t="b">
+      <c r="I44" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -1689,7 +1732,8 @@
       <c r="H45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="6" t="b">
+      <c r="I45" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -1721,7 +1765,8 @@
       <c r="H46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="6" t="b">
+      <c r="I46" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -1753,7 +1798,8 @@
       <c r="H47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="6" t="b">
+      <c r="I47" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -1785,7 +1831,8 @@
       <c r="H48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="6" t="b">
+      <c r="I48" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -1817,7 +1864,8 @@
       <c r="H49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="6" t="b">
+      <c r="I49" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
